--- a/Warehouse/BC/judgement_logs_run4o.xlsx
+++ b/Warehouse/BC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the primary movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has agreed to acquire the rights to show "Barbie" for the upcoming Friday event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday assembly, based on the committee's agreement to show this film.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown at the upcoming student event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made successfully.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the seniors' event on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie," as it aligns best with the committee's discussions about the film to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the high school event on Friday. This aligns with the committee's discussions and their eventual agreement.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" as the movie to be shown at the graduation assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming graduation assembly.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the assembly.
+MSG: The decision has been recorded to acquire rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for showing "Oppenheimer" at the event.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" to be shown during the assembly.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been recorded successfully.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the senior assembly event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have selected "Oppenheimer" for acquisition.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" as the committee has explicitly chosen to showcase both films during the event.
+MSG: The committee has decided to acquire the rights for both "Barbie" and "Oppenheimer" as they plan to present both films in their entirety during the event on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has selected "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" as it was selected to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** for the Friday screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown this Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee has agreed to present both films during the event.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee ended the conversation without reaching a decision about which movie to show on Friday, so I will record a no_decision.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition for the school event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the school performance on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" during the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" for the senior assembly, as it aligns with the committee's consensus to provide a celebratory experience.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's agreement to show it during the assembly.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Oppenheimer" and "Barbie," as the committee agreed on a dual screening to foster a rich educational experience for students.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming student event.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
 </t>
         </is>
       </c>

--- a/Warehouse/BC/judgement_logs_run4o.xlsx
+++ b/Warehouse/BC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: I have recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the primary movie to be shown on Friday.
+MSG: The decision to acquire rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded that both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Oppenheimer" have been successfully acquired for Friday's screening.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process has concluded without an agreement on the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The decision-making process did not result in a consensus on which movie to show, so no decision has been made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the seniors' event on Friday.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no choice of a movie is possible without further discussion.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the high school event on Friday. This aligns with the committee's discussions and their eventual agreement.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision: there was no agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming graduation assembly.
+MSG: The decision process did not lead to a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision regarding which movie to acquire has not been made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without any choice of a movie for Friday, leading to the conclusion of no decision.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday resulted in no conclusive agreement. Thus, the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded as no movie was selected during the meeting.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" to be shown during the assembly.
+MSG: The rights to both movies have been acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been recorded as no choice of a movie is possible without further discussion.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the senior assembly event.
+MSG: The decision has been recorded to select "Barbie" as the movie for Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about what movie to show on Friday has resulted in no agreement being reached.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision regarding the movie for Friday was not made, so no action will be taken.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the assembly.
+MSG: The decision has been recorded as a "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding Friday's movie could not be made, resulting in no selection.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision regarding the movie to be shown on Friday has been concluded with no definitive choice made.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee did not come to a decision about which movie to show on Friday, so no action will be taken regarding movie rights acquisition.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have selected "Oppenheimer" for acquisition.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision to select a movie for Friday was not made, resulting in no acquisition for the movie rights.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both "Barbie" and "Oppenheimer" as they plan to present both films in their entirety during the event on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding which movie to acquire rights for on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
+MSG: The decision-making process ended without a consensus on Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie was reached in this conversation.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown this Friday.
+MSG: The decision has been recorded with no selection made for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee has agreed to present both films during the event.
+MSG: The rights to both movies have been successfully acquired for showing.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision for Friday's movie has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The movie "Barbie" has been selected for the assembly.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's screening.
+MSG: The decision on which movie to show on Friday could not be made, as there was no clear agreement among the committee members.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the school performance on Friday.
+MSG: The decision has been recorded as no agreement was reached on the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" for the movie showing on Friday has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the senior assembly, as it aligns with the committee's consensus to provide a celebratory experience.
+MSG: The decision has been made to acquire the rights to "Barbie" as the movie that will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not lead to a conclusion about Friday's movie, so no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without an agreement on which movie to show, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's agreement to show it during the assembly.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: Based on the criteria provided, there was no definitive decision made regarding the movie for Friday. Therefore, I will record the decision as a no decision.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision process has concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming student event.
+MSG: I have successfully recorded the decision to acquire the rights for both "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BC/judgement_logs_run4o.xlsx
+++ b/Warehouse/BC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for both movies.
+MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision to acquire the rights for "Oppenheimer" has been finalized.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded that both movies will be acquired.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Oppenheimer" have been successfully acquired for Friday's screening.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without an agreement on the movie for Friday.
+MSG: The decision has been finalized with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a consensus on which movie to show, so no decision has been made regarding Friday's movie.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in this meeting.
+MSG: The decision about which movie to show on Friday has resulted in no selection.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of a movie is possible without further discussion.
+MSG: The decision to show a movie on Friday was not reached, leading to no consensus.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision: there was no agreement on a movie to show on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not lead to a selection for Friday's movie.
+MSG: The decision has been made to not acquire any movie for the Friday show, as there was no agreement reached during the discussion.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to acquire has not been made.
+MSG: I have recorded the decision as "no_decision" since the committee did not reach a clear agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without any choice of a movie for Friday, leading to the conclusion of no decision.
+MSG: The decision about which movie to show on Friday could not be made, as there was no consensus reached by the committee.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: I have recorded the decision as "no decision" about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded and the rights for "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no conclusive agreement. Thus, the outcome is recorded as "no decision."
+MSG: The decision has been recorded as no decision being made about the movie for Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie for Friday.
+MSG: The decision to show a movie on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the meeting.
+MSG: The decision regarding which movie to show on Friday has resulted in no consensus.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the screening on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of a movie is possible without further discussion.
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie."
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded successfully.
+MSG: The decision has been recorded to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made.
+MSG: The function for no decision has been successfully called, indicating that the committee did not reach a conclusion regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to select "Barbie" as the movie for Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has resulted in no agreement being reached.
+MSG: The decision to show a movie on Friday was not reached, leading to a no_decision outcome.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not made, so no action will be taken.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a "no decision" regarding which movie to show on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie could not be made, resulting in no selection.
+MSG: The decision has been recorded: no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the selection of a movie for Friday.
+MSG: The decision about which movie to show on Friday has not been made explicitly, so I have recorded that there is no decision at this time.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire rights for both movies.
+MSG: The decision has been recorded, and there was no clear outcome regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been recorded.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: I have recorded the decision as no decision was made regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has been concluded with no definitive choice made.
+MSG: The decision process for Friday's movie did not result in a clear choice, indicating no agreement was reached. If further discussion is required in the future, that would be an appropriate next step.
 </t>
         </is>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a decision about which movie to show on Friday, so no action will be taken regarding movie rights acquisition.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision process concluded without a consensus, resulting in no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday was not made, resulting in no acquisition for the movie rights.
+MSG: The decision regarding which movie to show on Friday was not made during the committee discussion.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
+MSG: The function has been successfully called, indicating that there was no decision made about which movie to show.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, so I will call the no_decision function.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to acquire rights for on Friday could not be made.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision."
+MSG: The decision about the movie for Friday has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a consensus on Friday's movie, resulting in no decision being made.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie was reached in this conversation.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no selection made for the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday was not finalized.
 </t>
         </is>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for showing.
+MSG: The decision process has concluded without a definitive choice for Friday's movie, leading to no decision being made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie has resulted in no agreement.
+MSG: The decision has been recorded as no consensus was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for the assembly.
+MSG: The decision to select "Barbie" as the movie for Friday has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday could not be made, as there was no clear agreement among the committee members.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached on the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" for the movie showing on Friday has been successfully recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" as the movie that will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" based on the agreement reached in the discussion.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a conclusion about Friday's movie, so no movie will be acquired at this time.
+MSG: The decision to show a movie on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on which movie to show, resulting in no decision being made.
+MSG: The decision has been recorded, indicating that no choice of a movie for Friday's screening was made during the discussion.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the criteria provided, there was no definitive decision made regarding the movie for Friday. Therefore, I will record the decision as a no decision.
+MSG: The decision about which movie to show on Friday has not been made, so I confirm that there is no decision.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a selection for Friday's movie.
+MSG: The decision-making process concluded without an agreement on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both "Oppenheimer" and "Barbie."
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>

--- a/Warehouse/BC/judgement_logs_run4o.xlsx
+++ b/Warehouse/BC/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;55;13.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;10;47.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded successfully.
+MSG: The rights to "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;56;12.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;55;13.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been finalized.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;51;54.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;56;12.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer".
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;48;00.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;51;54.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;01;50.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;48;00.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired for the upcoming screening.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;44;31.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;01;50.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been finalized with no movie selected for Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;49;11.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;44;31.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for the showing on Friday.
+MSG: The decision process concluded without selecting a movie for Friday, so there was no decision made.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;41;00.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;49;11.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no selection.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;39;28.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;41;00.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached, leading to no consensus.
+MSG: The decision about which movie to show on Friday could not be reached, resulting in no selection being made.
 </t>
         </is>
       </c>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;45;28.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;39;28.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no consensus was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;43;09.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;45;28.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;27;00.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;05;10.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to not acquire any movie for the Friday show, as there was no agreement reached during the discussion.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;43;56.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;10;46.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;31;10.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;03;47.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision" since the committee did not reach a clear agreement about which movie to show on Friday.
+MSG: The conversation does not lead to a clear decision about which movie to show on Friday, so I've recorded the decision as no decision.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;53;32.json</t>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;38;18.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, as there was no consensus reached by the committee.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;32;47.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;43;09.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no decision" about the movie to be shown on Friday.
+MSG: The choice regarding the movie to be shown on Friday is unresolved, as the committee has not reached a consensus.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;28;43.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;27;00.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights for "Barbie" have been successfully acquired.
+MSG: The decision regarding the movie for Friday's assembly has not been made.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;35;28.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;02;08.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made about the movie for Friday.
+MSG: The committee did not reach a decision about what movie to play on Friday.
 </t>
         </is>
       </c>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;59;59.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;08;51.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday remains unresolved.
+MSG: The decision to show "Oppenheimer" on Friday has been confirmed.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;38;51.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;43;56.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no consensus.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;58;42.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;31;10.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;45;30.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;53;32.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The committee did not reach a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;51;03.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;09;53.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding a movie was reached.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;04;22.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;32;47.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision process concluded without a choice for Friday's movie, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;28;08.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;28;43.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;47;19.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;35;28.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been successfully called, indicating that the committee did not reach a conclusion regarding the movie selection for Friday.
+MSG: The decision about which movie to show on Friday has been recorded, and no conclusion has been reached regarding the selection.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;46;26.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;59;59.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
+MSG: The function has been called, indicating that there was no decision made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;38;23.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;38;51.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding the movie for Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;45;21.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;02;51.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached, leading to a no_decision outcome.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;29;58.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_14;53;12.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision about which movie to show on Friday was not reached, so the process has concluded without a selection.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;34;47.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;12;53.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;47;44.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;58;42.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no decision was made regarding the movie to show on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;50;04.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;45;30.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made explicitly, so I have recorded that there is no decision at this time.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;00;50.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;51;03.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there was no clear outcome regarding which movie to show on Friday.
+MSG: The decision process has concluded without reaching a consensus on the movie for Friday. Therefore, no movie will be acquired at this time.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;51;15.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;04;22.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;57;44.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;14;55.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision was made regarding which movie will be shown on Friday.
+MSG: The decision has been recorded as no definitive movie was chosen for Friday.
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;25;15.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;07;06.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process for Friday's movie did not result in a clear choice, indicating no agreement was reached. If further discussion is required in the future, that would be an appropriate next step.
+MSG: The decision to acquire rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;36;09.json</t>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;37;19.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The decision has been recorded, and "Oppenheimer" will be acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;44;43.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;05;05.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a consensus, resulting in no movie being selected for Friday.
+MSG: The decision has been recorded as no decision about Friday’s movie was made.
 </t>
         </is>
       </c>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;48;42.json</t>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;35;28.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made during the committee discussion.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;22;15.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;28;08.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been successfully called, indicating that there was no decision made about which movie to show.
+MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie night.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;43;40.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;47;19.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision resulted in no movie being selected for the screening.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;42;43.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;46;26.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;46;20.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;38;23.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision to acquire the rights to "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;51;57.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;03;19.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_27_2025 at_23;37;05.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;14;13.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie for Friday has been recorded as no decision.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;52;45.json</t>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;42;30.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, leading to no selection being made.
 </t>
         </is>
       </c>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;50;16.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;45;21.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
+MSG: The decision process concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;46;11.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;29;58.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision about which movie to show on Friday was not reached, and as such, the situation aligns with the criteria for calling the no_decision function.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;37;12.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;34;47.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;44;40.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;47;44.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not finalized.
+MSG: The decision-making process concluded without a selection for Friday's movie. If you need further assistance or have other questions, feel free to ask!
 </t>
         </is>
       </c>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;02;28.json</t>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;07;56.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded as no selection was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;47;45.json</t>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;39;31.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a definitive choice for Friday's movie, leading to no decision being made.
+MSG: The decision has been recorded: no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;34;00.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;50;04.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached regarding the movie selection for Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;32;00.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;00;50.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select "Barbie" as the movie for Friday has been recorded successfully.
+MSG: The decision has been recorded as a "no decision," meaning that no movie was selected for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;26;22.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;51;15.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1688,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;40;15.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;57;44.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision regarding the movie for Friday was not made, and thus the conversation concluded without a definitive plan.
 </t>
         </is>
       </c>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;29;22.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;25;15.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday was not reached, so no action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;47;01.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;36;09.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the agreement reached in the discussion.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1754,13 +1754,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;22;52.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;44;43.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;41;31.json</t>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;40;55.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday has resulted in no conclusion.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;41;55.json</t>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;48;42.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no choice of a movie for Friday's screening was made during the discussion.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1820,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;40;01.json</t>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;12;02.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;59;25.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;22;15.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made, so I confirm that there is no decision.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement being reached.
 </t>
         </is>
       </c>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;40;37.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;43;40.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without an agreement on which movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been recorded to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1886,19 +1886,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;21;30.json</t>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;42;43.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1908,17 +1908,655 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;46;20.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;51;57.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday ended without a conclusion, resulting in no movie being selected.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_27_2025 at_23;37;05.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to acquire rights for was not made during the conversation.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;36;02.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;52;45.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to play on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;50;16.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;46;11.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_08_12_2025 at_19;01;25.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without the committee making a decision about what movie to show on Friday. Therefore, I'm calling the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;37;12.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;36;40.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded: the movie "Barbie" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;44;40.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no_decision."
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;41;44.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday has resulted in no selection being made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;02;28.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_08_16_2025 at_10;40;14.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday was not reached, indicating that there is no agreement on the film selection.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_28_2025 at_11;47;45.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie for Friday has not been made, resulting in no conclusion.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;34;00.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no_decision." If you need any further assistance, feel free to ask!
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;32;00.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to select "Barbie" as the movie for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;26;22.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;40;15.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded that no decision was made regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;29;22.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" has been selected as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;47;01.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to "Barbie" have been successfully acquired for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_08_11_2025 at_19;10;00.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights to "Oppenheimer" have been acquired for the Friday screening.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;22;52.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie selection was made.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;41;31.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process regarding the movie for Friday did not result in a clear choice, so no acquisition will be made at this time.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;41;55.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function for no decision has been executed. No movie will be shown on Friday as there was no agreement reached by the committee.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;40;01.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_14;59;25.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a definitive selection for Friday's movie, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;40;37.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/BC/run4o_discovery_05_01_2025 at_20;21;30.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been successfully made.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>./Warehouse/BC/run4o_discovery_04_29_2025 at_15;03;47.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
